--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1029,6 +1029,9 @@
   <si>
     <t>['16', '55', '82']</t>
   </si>
+  <si>
+    <t>['50', '96', '107', '113']</t>
+  </si>
 </sst>
 </file>
 
@@ -1389,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK297"/>
+  <dimension ref="A1:BK299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1914,7 +1917,7 @@
         <v>1.39</v>
       </c>
       <c r="AT3">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2484,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT6">
         <v>1.05</v>
@@ -3633,7 +3636,7 @@
         <v>0.78</v>
       </c>
       <c r="AT12">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3821,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT13">
         <v>1.11</v>
@@ -4012,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT14">
         <v>0.63</v>
@@ -5352,7 +5355,7 @@
         <v>0.95</v>
       </c>
       <c r="AT21">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU21">
         <v>1.8</v>
@@ -6304,7 +6307,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT26">
         <v>0.89</v>
@@ -6877,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT29">
         <v>1.67</v>
@@ -7262,7 +7265,7 @@
         <v>1.37</v>
       </c>
       <c r="AT31">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU31">
         <v>2.29</v>
@@ -8217,7 +8220,7 @@
         <v>1.37</v>
       </c>
       <c r="AT36">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU36">
         <v>1.06</v>
@@ -9742,7 +9745,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT44">
         <v>0.68</v>
@@ -10127,7 +10130,7 @@
         <v>1.68</v>
       </c>
       <c r="AT46">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU46">
         <v>1.66</v>
@@ -10315,7 +10318,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT47">
         <v>2</v>
@@ -10891,7 +10894,7 @@
         <v>0.78</v>
       </c>
       <c r="AT50">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU50">
         <v>1.35</v>
@@ -13371,10 +13374,10 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT63">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU63">
         <v>1.08</v>
@@ -14326,7 +14329,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT68">
         <v>1</v>
@@ -14711,7 +14714,7 @@
         <v>0.44</v>
       </c>
       <c r="AT70">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU70">
         <v>1.57</v>
@@ -15475,7 +15478,7 @@
         <v>1.28</v>
       </c>
       <c r="AT74">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU74">
         <v>1.26</v>
@@ -16048,7 +16051,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT77">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU77">
         <v>1.62</v>
@@ -16427,7 +16430,7 @@
         <v>2.6</v>
       </c>
       <c r="AS79">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT79">
         <v>1.68</v>
@@ -17382,7 +17385,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT84">
         <v>1.05</v>
@@ -18722,7 +18725,7 @@
         <v>0.83</v>
       </c>
       <c r="AT91">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU91">
         <v>1.5</v>
@@ -18913,7 +18916,7 @@
         <v>1.16</v>
       </c>
       <c r="AT92">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU92">
         <v>1.92</v>
@@ -19865,7 +19868,7 @@
         <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT97">
         <v>2.06</v>
@@ -20820,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT102">
         <v>1.68</v>
@@ -21966,7 +21969,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT108">
         <v>1</v>
@@ -22542,7 +22545,7 @@
         <v>1.56</v>
       </c>
       <c r="AT111">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU111">
         <v>1.66</v>
@@ -24067,7 +24070,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT119">
         <v>1.26</v>
@@ -24261,7 +24264,7 @@
         <v>1.37</v>
       </c>
       <c r="AT120">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU120">
         <v>1</v>
@@ -25789,7 +25792,7 @@
         <v>1.16</v>
       </c>
       <c r="AT128">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU128">
         <v>2.12</v>
@@ -26359,7 +26362,7 @@
         <v>1</v>
       </c>
       <c r="AS131">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT131">
         <v>1.26</v>
@@ -26935,7 +26938,7 @@
         <v>1.72</v>
       </c>
       <c r="AT134">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU134">
         <v>1.6</v>
@@ -27314,7 +27317,7 @@
         <v>2</v>
       </c>
       <c r="AS136">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT136">
         <v>1.67</v>
@@ -27890,7 +27893,7 @@
         <v>1.37</v>
       </c>
       <c r="AT139">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU139">
         <v>1.04</v>
@@ -29606,7 +29609,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT148">
         <v>0.68</v>
@@ -30179,7 +30182,7 @@
         <v>1.75</v>
       </c>
       <c r="AS151">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT151">
         <v>2</v>
@@ -31516,7 +31519,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT158">
         <v>0.63</v>
@@ -31710,7 +31713,7 @@
         <v>1.68</v>
       </c>
       <c r="AT159">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU159">
         <v>1.51</v>
@@ -31901,7 +31904,7 @@
         <v>1.28</v>
       </c>
       <c r="AT160">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU160">
         <v>1.37</v>
@@ -32280,7 +32283,7 @@
         <v>1.22</v>
       </c>
       <c r="AS162">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT162">
         <v>1.11</v>
@@ -32853,7 +32856,7 @@
         <v>0.75</v>
       </c>
       <c r="AS165">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT165">
         <v>0.89</v>
@@ -33617,7 +33620,7 @@
         <v>1.73</v>
       </c>
       <c r="AS169">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT169">
         <v>1.68</v>
@@ -33811,7 +33814,7 @@
         <v>0.95</v>
       </c>
       <c r="AT170">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU170">
         <v>1.35</v>
@@ -35336,10 +35339,10 @@
         <v>2.14</v>
       </c>
       <c r="AS178">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AT178">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="AU178">
         <v>1.79</v>
@@ -35912,7 +35915,7 @@
         <v>1.72</v>
       </c>
       <c r="AT181">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU181">
         <v>1.53</v>
@@ -36673,7 +36676,7 @@
         <v>1.8</v>
       </c>
       <c r="AS185">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT185">
         <v>2</v>
@@ -38204,7 +38207,7 @@
         <v>1.16</v>
       </c>
       <c r="AT193">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU193">
         <v>2.1</v>
@@ -38965,7 +38968,7 @@
         <v>1.18</v>
       </c>
       <c r="AS197">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT197">
         <v>1.68</v>
@@ -39920,10 +39923,10 @@
         <v>1.92</v>
       </c>
       <c r="AS202">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT202">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU202">
         <v>1.75</v>
@@ -41451,7 +41454,7 @@
         <v>1.72</v>
       </c>
       <c r="AT210">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU210">
         <v>1.49</v>
@@ -41639,7 +41642,7 @@
         <v>1.15</v>
       </c>
       <c r="AS211">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT211">
         <v>1.26</v>
@@ -42215,7 +42218,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT214">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU214">
         <v>1.85</v>
@@ -42403,7 +42406,7 @@
         <v>1.54</v>
       </c>
       <c r="AS215">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT215">
         <v>1.68</v>
@@ -43934,7 +43937,7 @@
         <v>2.32</v>
       </c>
       <c r="AT223">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU223">
         <v>1.95</v>
@@ -44695,7 +44698,7 @@
         <v>0.43</v>
       </c>
       <c r="AS227">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT227">
         <v>0.63</v>
@@ -45268,7 +45271,7 @@
         <v>1.23</v>
       </c>
       <c r="AS230">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT230">
         <v>1.11</v>
@@ -45462,7 +45465,7 @@
         <v>0.83</v>
       </c>
       <c r="AT231">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU231">
         <v>1.44</v>
@@ -47369,10 +47372,10 @@
         <v>1.71</v>
       </c>
       <c r="AS241">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT241">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU241">
         <v>1.71</v>
@@ -47945,7 +47948,7 @@
         <v>1.56</v>
       </c>
       <c r="AT244">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU244">
         <v>1.46</v>
@@ -48706,7 +48709,7 @@
         <v>1.86</v>
       </c>
       <c r="AS248">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT248">
         <v>1.67</v>
@@ -49470,7 +49473,7 @@
         <v>1.13</v>
       </c>
       <c r="AS252">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT252">
         <v>1.06</v>
@@ -51383,7 +51386,7 @@
         <v>1.39</v>
       </c>
       <c r="AT262">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AU262">
         <v>1.55</v>
@@ -51953,7 +51956,7 @@
         <v>0.63</v>
       </c>
       <c r="AS265">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT265">
         <v>0.68</v>
@@ -52147,7 +52150,7 @@
         <v>1.68</v>
       </c>
       <c r="AT266">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU266">
         <v>1.31</v>
@@ -53481,7 +53484,7 @@
         <v>1.75</v>
       </c>
       <c r="AS273">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT273">
         <v>1.72</v>
@@ -54307,7 +54310,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>3274756</v>
+        <v>3274752</v>
       </c>
       <c r="C278" t="s">
         <v>63</v>
@@ -54316,181 +54319,181 @@
         <v>64</v>
       </c>
       <c r="E278" s="2">
-        <v>44846.89583333334</v>
+        <v>44846.79166666666</v>
       </c>
       <c r="F278">
         <v>13</v>
       </c>
       <c r="G278" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H278" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I278">
         <v>1</v>
       </c>
       <c r="J278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M278">
         <v>1</v>
       </c>
       <c r="N278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O278" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="P278" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="Q278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R278">
         <v>3</v>
       </c>
       <c r="S278">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T278">
-        <v>2.85</v>
+        <v>4</v>
       </c>
       <c r="U278">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="V278">
-        <v>4.24</v>
+        <v>2.65</v>
       </c>
       <c r="W278">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="X278">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="Y278">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Z278">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AA278">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AB278">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AC278">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="AD278">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE278">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="AF278">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AG278">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AH278">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AI278">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="AJ278">
-        <v>2.44</v>
+        <v>2.15</v>
       </c>
       <c r="AK278">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="AL278">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AM278">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AN278">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO278">
         <v>1.3</v>
       </c>
       <c r="AP278">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AQ278">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="AR278">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AS278">
-        <v>1.16</v>
+        <v>1.63</v>
       </c>
       <c r="AT278">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AU278">
-        <v>1.93</v>
+        <v>1.23</v>
       </c>
       <c r="AV278">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AW278">
-        <v>3.37</v>
+        <v>2.86</v>
       </c>
       <c r="AX278">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="AY278">
         <v>8</v>
       </c>
       <c r="AZ278">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="BA278">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="BB278">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="BC278">
-        <v>1.83</v>
+        <v>2.28</v>
       </c>
       <c r="BD278">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="BE278">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF278">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG278">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH278">
+        <v>1</v>
+      </c>
+      <c r="BI278">
         <v>5</v>
       </c>
-      <c r="BI278">
-        <v>2</v>
-      </c>
       <c r="BJ278">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK278">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:63">
@@ -54498,7 +54501,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>3274753</v>
+        <v>3274756</v>
       </c>
       <c r="C279" t="s">
         <v>63</v>
@@ -54507,181 +54510,181 @@
         <v>64</v>
       </c>
       <c r="E279" s="2">
-        <v>44847.625</v>
+        <v>44846.89583333334</v>
       </c>
       <c r="F279">
         <v>13</v>
       </c>
       <c r="G279" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H279" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K279">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M279">
         <v>1</v>
       </c>
       <c r="N279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O279" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P279" t="s">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="Q279">
         <v>3</v>
       </c>
       <c r="R279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S279">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T279">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="U279">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V279">
-        <v>3.3</v>
+        <v>4.24</v>
       </c>
       <c r="W279">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X279">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Y279">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z279">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AA279">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB279">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AC279">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="AD279">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="AE279">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="AF279">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AG279">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH279">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AI279">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="AJ279">
-        <v>1.94</v>
+        <v>2.44</v>
       </c>
       <c r="AK279">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="AL279">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AM279">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AN279">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AO279">
         <v>1.3</v>
       </c>
       <c r="AP279">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ279">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AR279">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="AS279">
-        <v>1.56</v>
+        <v>1.16</v>
       </c>
       <c r="AT279">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="AU279">
-        <v>1.46</v>
+        <v>1.93</v>
       </c>
       <c r="AV279">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="AW279">
-        <v>3.2</v>
+        <v>3.37</v>
       </c>
       <c r="AX279">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AY279">
         <v>8</v>
       </c>
       <c r="AZ279">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BA279">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="BB279">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="BC279">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="BD279">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="BE279">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="BF279">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG279">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH279">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI279">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BJ279">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK279">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:63">
@@ -54689,7 +54692,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>3274757</v>
+        <v>3274753</v>
       </c>
       <c r="C280" t="s">
         <v>63</v>
@@ -54698,16 +54701,16 @@
         <v>64</v>
       </c>
       <c r="E280" s="2">
-        <v>44847.79166666666</v>
+        <v>44847.625</v>
       </c>
       <c r="F280">
         <v>13</v>
       </c>
       <c r="G280" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H280" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I280">
         <v>0</v>
@@ -54731,148 +54734,148 @@
         <v>83</v>
       </c>
       <c r="P280" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="Q280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R280">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S280">
+        <v>5</v>
+      </c>
+      <c r="T280">
+        <v>3.3</v>
+      </c>
+      <c r="U280">
+        <v>1.95</v>
+      </c>
+      <c r="V280">
+        <v>3.3</v>
+      </c>
+      <c r="W280">
+        <v>1.51</v>
+      </c>
+      <c r="X280">
+        <v>2.4</v>
+      </c>
+      <c r="Y280">
+        <v>3.25</v>
+      </c>
+      <c r="Z280">
+        <v>1.3</v>
+      </c>
+      <c r="AA280">
+        <v>9.5</v>
+      </c>
+      <c r="AB280">
+        <v>1.06</v>
+      </c>
+      <c r="AC280">
+        <v>2.58</v>
+      </c>
+      <c r="AD280">
+        <v>2.83</v>
+      </c>
+      <c r="AE280">
+        <v>2.64</v>
+      </c>
+      <c r="AF280">
+        <v>1.07</v>
+      </c>
+      <c r="AG280">
+        <v>8.5</v>
+      </c>
+      <c r="AH280">
+        <v>1.42</v>
+      </c>
+      <c r="AI280">
+        <v>2.75</v>
+      </c>
+      <c r="AJ280">
+        <v>1.94</v>
+      </c>
+      <c r="AK280">
+        <v>1.69</v>
+      </c>
+      <c r="AL280">
+        <v>1.95</v>
+      </c>
+      <c r="AM280">
+        <v>1.8</v>
+      </c>
+      <c r="AN280">
+        <v>1.4</v>
+      </c>
+      <c r="AO280">
+        <v>1.3</v>
+      </c>
+      <c r="AP280">
+        <v>1.4</v>
+      </c>
+      <c r="AQ280">
+        <v>1.56</v>
+      </c>
+      <c r="AR280">
+        <v>1.94</v>
+      </c>
+      <c r="AS280">
+        <v>1.56</v>
+      </c>
+      <c r="AT280">
+        <v>2.06</v>
+      </c>
+      <c r="AU280">
+        <v>1.46</v>
+      </c>
+      <c r="AV280">
+        <v>1.74</v>
+      </c>
+      <c r="AW280">
+        <v>3.2</v>
+      </c>
+      <c r="AX280">
+        <v>2</v>
+      </c>
+      <c r="AY280">
+        <v>8</v>
+      </c>
+      <c r="AZ280">
+        <v>2</v>
+      </c>
+      <c r="BA280">
+        <v>1.23</v>
+      </c>
+      <c r="BB280">
+        <v>1.3</v>
+      </c>
+      <c r="BC280">
+        <v>1.53</v>
+      </c>
+      <c r="BD280">
+        <v>2</v>
+      </c>
+      <c r="BE280">
+        <v>2.45</v>
+      </c>
+      <c r="BF280">
+        <v>4</v>
+      </c>
+      <c r="BG280">
+        <v>4</v>
+      </c>
+      <c r="BH280">
+        <v>6</v>
+      </c>
+      <c r="BI280">
         <v>9</v>
       </c>
-      <c r="T280">
-        <v>7.28</v>
-      </c>
-      <c r="U280">
-        <v>2.43</v>
-      </c>
-      <c r="V280">
-        <v>1.98</v>
-      </c>
-      <c r="W280">
-        <v>1.38</v>
-      </c>
-      <c r="X280">
-        <v>3.09</v>
-      </c>
-      <c r="Y280">
-        <v>2.88</v>
-      </c>
-      <c r="Z280">
-        <v>1.43</v>
-      </c>
-      <c r="AA280">
-        <v>6.1</v>
-      </c>
-      <c r="AB280">
-        <v>1.09</v>
-      </c>
-      <c r="AC280">
-        <v>10.12</v>
-      </c>
-      <c r="AD280">
-        <v>4.84</v>
-      </c>
-      <c r="AE280">
-        <v>1.2</v>
-      </c>
-      <c r="AF280">
-        <v>1.03</v>
-      </c>
-      <c r="AG280">
+      <c r="BJ280">
+        <v>10</v>
+      </c>
+      <c r="BK280">
         <v>13</v>
-      </c>
-      <c r="AH280">
-        <v>1.21</v>
-      </c>
-      <c r="AI280">
-        <v>3.55</v>
-      </c>
-      <c r="AJ280">
-        <v>1.8</v>
-      </c>
-      <c r="AK280">
-        <v>1.98</v>
-      </c>
-      <c r="AL280">
-        <v>2.16</v>
-      </c>
-      <c r="AM280">
-        <v>1.7</v>
-      </c>
-      <c r="AN280">
-        <v>2.93</v>
-      </c>
-      <c r="AO280">
-        <v>1.22</v>
-      </c>
-      <c r="AP280">
-        <v>1.09</v>
-      </c>
-      <c r="AQ280">
-        <v>1.06</v>
-      </c>
-      <c r="AR280">
-        <v>2</v>
-      </c>
-      <c r="AS280">
-        <v>0.95</v>
-      </c>
-      <c r="AT280">
-        <v>2.11</v>
-      </c>
-      <c r="AU280">
-        <v>1.29</v>
-      </c>
-      <c r="AV280">
-        <v>2.03</v>
-      </c>
-      <c r="AW280">
-        <v>3.32</v>
-      </c>
-      <c r="AX280">
-        <v>5</v>
-      </c>
-      <c r="AY280">
-        <v>11</v>
-      </c>
-      <c r="AZ280">
-        <v>1.22</v>
-      </c>
-      <c r="BA280">
-        <v>1.2</v>
-      </c>
-      <c r="BB280">
-        <v>1.38</v>
-      </c>
-      <c r="BC280">
-        <v>1.67</v>
-      </c>
-      <c r="BD280">
-        <v>2.12</v>
-      </c>
-      <c r="BE280">
-        <v>2.85</v>
-      </c>
-      <c r="BF280">
-        <v>3</v>
-      </c>
-      <c r="BG280">
-        <v>6</v>
-      </c>
-      <c r="BH280">
-        <v>0</v>
-      </c>
-      <c r="BI280">
-        <v>4</v>
-      </c>
-      <c r="BJ280">
-        <v>3</v>
-      </c>
-      <c r="BK280">
-        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:63">
@@ -54880,7 +54883,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>3274750</v>
+        <v>3274757</v>
       </c>
       <c r="C281" t="s">
         <v>63</v>
@@ -54889,181 +54892,181 @@
         <v>64</v>
       </c>
       <c r="E281" s="2">
-        <v>44847.89583333334</v>
+        <v>44847.79166666666</v>
       </c>
       <c r="F281">
         <v>13</v>
       </c>
       <c r="G281" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H281" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J281">
         <v>0</v>
       </c>
       <c r="K281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M281">
         <v>1</v>
       </c>
       <c r="N281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O281" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="P281" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="Q281">
+        <v>2</v>
+      </c>
+      <c r="R281">
+        <v>7</v>
+      </c>
+      <c r="S281">
+        <v>9</v>
+      </c>
+      <c r="T281">
+        <v>7.28</v>
+      </c>
+      <c r="U281">
+        <v>2.43</v>
+      </c>
+      <c r="V281">
+        <v>1.98</v>
+      </c>
+      <c r="W281">
+        <v>1.38</v>
+      </c>
+      <c r="X281">
+        <v>3.09</v>
+      </c>
+      <c r="Y281">
+        <v>2.88</v>
+      </c>
+      <c r="Z281">
+        <v>1.43</v>
+      </c>
+      <c r="AA281">
+        <v>6.1</v>
+      </c>
+      <c r="AB281">
+        <v>1.09</v>
+      </c>
+      <c r="AC281">
+        <v>10.12</v>
+      </c>
+      <c r="AD281">
+        <v>4.84</v>
+      </c>
+      <c r="AE281">
+        <v>1.2</v>
+      </c>
+      <c r="AF281">
+        <v>1.03</v>
+      </c>
+      <c r="AG281">
+        <v>13</v>
+      </c>
+      <c r="AH281">
+        <v>1.21</v>
+      </c>
+      <c r="AI281">
+        <v>3.55</v>
+      </c>
+      <c r="AJ281">
+        <v>1.8</v>
+      </c>
+      <c r="AK281">
+        <v>1.98</v>
+      </c>
+      <c r="AL281">
+        <v>2.16</v>
+      </c>
+      <c r="AM281">
+        <v>1.7</v>
+      </c>
+      <c r="AN281">
+        <v>2.93</v>
+      </c>
+      <c r="AO281">
+        <v>1.22</v>
+      </c>
+      <c r="AP281">
+        <v>1.09</v>
+      </c>
+      <c r="AQ281">
+        <v>1.06</v>
+      </c>
+      <c r="AR281">
+        <v>2</v>
+      </c>
+      <c r="AS281">
+        <v>0.95</v>
+      </c>
+      <c r="AT281">
+        <v>2.15</v>
+      </c>
+      <c r="AU281">
+        <v>1.29</v>
+      </c>
+      <c r="AV281">
+        <v>2.03</v>
+      </c>
+      <c r="AW281">
+        <v>3.32</v>
+      </c>
+      <c r="AX281">
+        <v>5</v>
+      </c>
+      <c r="AY281">
+        <v>11</v>
+      </c>
+      <c r="AZ281">
+        <v>1.22</v>
+      </c>
+      <c r="BA281">
+        <v>1.2</v>
+      </c>
+      <c r="BB281">
+        <v>1.38</v>
+      </c>
+      <c r="BC281">
+        <v>1.67</v>
+      </c>
+      <c r="BD281">
+        <v>2.12</v>
+      </c>
+      <c r="BE281">
+        <v>2.85</v>
+      </c>
+      <c r="BF281">
+        <v>3</v>
+      </c>
+      <c r="BG281">
+        <v>6</v>
+      </c>
+      <c r="BH281">
+        <v>0</v>
+      </c>
+      <c r="BI281">
         <v>4</v>
       </c>
-      <c r="R281">
-        <v>4</v>
-      </c>
-      <c r="S281">
-        <v>8</v>
-      </c>
-      <c r="T281">
-        <v>2.25</v>
-      </c>
-      <c r="U281">
-        <v>2.05</v>
-      </c>
-      <c r="V281">
-        <v>5.25</v>
-      </c>
-      <c r="W281">
-        <v>1.44</v>
-      </c>
-      <c r="X281">
-        <v>2.55</v>
-      </c>
-      <c r="Y281">
-        <v>3</v>
-      </c>
-      <c r="Z281">
-        <v>1.33</v>
-      </c>
-      <c r="AA281">
-        <v>8</v>
-      </c>
-      <c r="AB281">
-        <v>1.06</v>
-      </c>
-      <c r="AC281">
-        <v>1.53</v>
-      </c>
-      <c r="AD281">
-        <v>3.45</v>
-      </c>
-      <c r="AE281">
-        <v>5.6</v>
-      </c>
-      <c r="AF281">
-        <v>1.05</v>
-      </c>
-      <c r="AG281">
+      <c r="BJ281">
+        <v>3</v>
+      </c>
+      <c r="BK281">
         <v>10</v>
-      </c>
-      <c r="AH281">
-        <v>1.34</v>
-      </c>
-      <c r="AI281">
-        <v>3</v>
-      </c>
-      <c r="AJ281">
-        <v>2.01</v>
-      </c>
-      <c r="AK281">
-        <v>1.63</v>
-      </c>
-      <c r="AL281">
-        <v>2.05</v>
-      </c>
-      <c r="AM281">
-        <v>1.66</v>
-      </c>
-      <c r="AN281">
-        <v>1.16</v>
-      </c>
-      <c r="AO281">
-        <v>1.27</v>
-      </c>
-      <c r="AP281">
-        <v>2.15</v>
-      </c>
-      <c r="AQ281">
-        <v>1.53</v>
-      </c>
-      <c r="AR281">
-        <v>0.53</v>
-      </c>
-      <c r="AS281">
-        <v>1.68</v>
-      </c>
-      <c r="AT281">
-        <v>0.63</v>
-      </c>
-      <c r="AU281">
-        <v>1.28</v>
-      </c>
-      <c r="AV281">
-        <v>1.15</v>
-      </c>
-      <c r="AW281">
-        <v>2.43</v>
-      </c>
-      <c r="AX281">
-        <v>1.57</v>
-      </c>
-      <c r="AY281">
-        <v>8</v>
-      </c>
-      <c r="AZ281">
-        <v>2.75</v>
-      </c>
-      <c r="BA281">
-        <v>1.27</v>
-      </c>
-      <c r="BB281">
-        <v>1.47</v>
-      </c>
-      <c r="BC281">
-        <v>1.95</v>
-      </c>
-      <c r="BD281">
-        <v>2.38</v>
-      </c>
-      <c r="BE281">
-        <v>3.4</v>
-      </c>
-      <c r="BF281">
-        <v>5</v>
-      </c>
-      <c r="BG281">
-        <v>5</v>
-      </c>
-      <c r="BH281">
-        <v>5</v>
-      </c>
-      <c r="BI281">
-        <v>10</v>
-      </c>
-      <c r="BJ281">
-        <v>10</v>
-      </c>
-      <c r="BK281">
-        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:63">
@@ -55071,7 +55074,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>3274761</v>
+        <v>3274750</v>
       </c>
       <c r="C282" t="s">
         <v>63</v>
@@ -55080,91 +55083,91 @@
         <v>64</v>
       </c>
       <c r="E282" s="2">
-        <v>44849.66666666666</v>
+        <v>44847.89583333334</v>
       </c>
       <c r="F282">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G282" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H282" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M282">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N282">
+        <v>3</v>
+      </c>
+      <c r="O282" t="s">
+        <v>223</v>
+      </c>
+      <c r="P282" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q282">
         <v>4</v>
       </c>
-      <c r="O282" t="s">
-        <v>217</v>
-      </c>
-      <c r="P282" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q282">
-        <v>6</v>
-      </c>
       <c r="R282">
+        <v>4</v>
+      </c>
+      <c r="S282">
         <v>8</v>
       </c>
-      <c r="S282">
-        <v>14</v>
-      </c>
       <c r="T282">
-        <v>4.15</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V282">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="W282">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X282">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Y282">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="Z282">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AA282">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AB282">
         <v>1.06</v>
       </c>
       <c r="AC282">
-        <v>3.11</v>
+        <v>1.53</v>
       </c>
       <c r="AD282">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="AE282">
-        <v>2.36</v>
+        <v>5.6</v>
       </c>
       <c r="AF282">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG282">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH282">
         <v>1.34</v>
@@ -55173,88 +55176,88 @@
         <v>3</v>
       </c>
       <c r="AJ282">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="AK282">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AL282">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AM282">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="AN282">
-        <v>1.83</v>
+        <v>1.16</v>
       </c>
       <c r="AO282">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AP282">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="AQ282">
-        <v>0.82</v>
+        <v>1.53</v>
       </c>
       <c r="AR282">
-        <v>1.17</v>
+        <v>0.53</v>
       </c>
       <c r="AS282">
-        <v>0.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT282">
-        <v>1.26</v>
+        <v>0.63</v>
       </c>
       <c r="AU282">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="AV282">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="AW282">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AX282">
-        <v>2.45</v>
+        <v>1.57</v>
       </c>
       <c r="AY282">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AZ282">
-        <v>1.77</v>
+        <v>2.75</v>
       </c>
       <c r="BA282">
         <v>1.27</v>
       </c>
       <c r="BB282">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="BC282">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BD282">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="BE282">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BF282">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG282">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BH282">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI282">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BJ282">
         <v>10</v>
       </c>
       <c r="BK282">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:63">
@@ -55262,7 +55265,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>3274760</v>
+        <v>3274761</v>
       </c>
       <c r="C283" t="s">
         <v>63</v>
@@ -55271,181 +55274,181 @@
         <v>64</v>
       </c>
       <c r="E283" s="2">
-        <v>44849.77083333334</v>
+        <v>44849.66666666666</v>
       </c>
       <c r="F283">
         <v>14</v>
       </c>
       <c r="G283" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H283" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I283">
         <v>0</v>
       </c>
       <c r="J283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M283">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N283">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O283" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="P283" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="Q283">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R283">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S283">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T283">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="U283">
+        <v>2</v>
+      </c>
+      <c r="V283">
+        <v>2.5</v>
+      </c>
+      <c r="W283">
+        <v>1.45</v>
+      </c>
+      <c r="X283">
+        <v>2.6</v>
+      </c>
+      <c r="Y283">
+        <v>3.15</v>
+      </c>
+      <c r="Z283">
+        <v>1.32</v>
+      </c>
+      <c r="AA283">
+        <v>9.5</v>
+      </c>
+      <c r="AB283">
+        <v>1.06</v>
+      </c>
+      <c r="AC283">
+        <v>3.11</v>
+      </c>
+      <c r="AD283">
+        <v>3.25</v>
+      </c>
+      <c r="AE283">
+        <v>2.36</v>
+      </c>
+      <c r="AF283">
+        <v>1.06</v>
+      </c>
+      <c r="AG283">
+        <v>9.5</v>
+      </c>
+      <c r="AH283">
+        <v>1.34</v>
+      </c>
+      <c r="AI283">
+        <v>3</v>
+      </c>
+      <c r="AJ283">
+        <v>2.2</v>
+      </c>
+      <c r="AK283">
+        <v>1.65</v>
+      </c>
+      <c r="AL283">
         <v>1.9</v>
       </c>
-      <c r="V283">
-        <v>2.75</v>
-      </c>
-      <c r="W283">
-        <v>1.48</v>
-      </c>
-      <c r="X283">
-        <v>2.38</v>
-      </c>
-      <c r="Y283">
-        <v>3.35</v>
-      </c>
-      <c r="Z283">
-        <v>1.29</v>
-      </c>
-      <c r="AA283">
-        <v>10.25</v>
-      </c>
-      <c r="AB283">
-        <v>1.05</v>
-      </c>
-      <c r="AC283">
-        <v>3.2</v>
-      </c>
-      <c r="AD283">
-        <v>3.2</v>
-      </c>
-      <c r="AE283">
-        <v>2.33</v>
-      </c>
-      <c r="AF283">
-        <v>1.07</v>
-      </c>
-      <c r="AG283">
-        <v>8.25</v>
-      </c>
-      <c r="AH283">
-        <v>1.41</v>
-      </c>
-      <c r="AI283">
-        <v>2.7</v>
-      </c>
-      <c r="AJ283">
-        <v>2.4</v>
-      </c>
-      <c r="AK283">
-        <v>1.55</v>
-      </c>
-      <c r="AL283">
-        <v>1.95</v>
-      </c>
       <c r="AM283">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN283">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AO283">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AP283">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AQ283">
-        <v>1.76</v>
+        <v>0.82</v>
       </c>
       <c r="AR283">
-        <v>2.06</v>
+        <v>1.17</v>
       </c>
       <c r="AS283">
-        <v>1.72</v>
+        <v>0.78</v>
       </c>
       <c r="AT283">
-        <v>2</v>
+        <v>1.26</v>
       </c>
       <c r="AU283">
-        <v>1.49</v>
+        <v>1.1</v>
       </c>
       <c r="AV283">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AW283">
-        <v>3.14</v>
+        <v>2.54</v>
       </c>
       <c r="AX283">
-        <v>2.76</v>
+        <v>2.45</v>
       </c>
       <c r="AY283">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AZ283">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="BA283">
         <v>1.27</v>
       </c>
       <c r="BB283">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="BC283">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="BD283">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="BE283">
         <v>3</v>
       </c>
       <c r="BF283">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG283">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BH283">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI283">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ283">
         <v>10</v>
       </c>
       <c r="BK283">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:63">
@@ -55453,7 +55456,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>3274762</v>
+        <v>3274760</v>
       </c>
       <c r="C284" t="s">
         <v>63</v>
@@ -55462,181 +55465,181 @@
         <v>64</v>
       </c>
       <c r="E284" s="2">
-        <v>44850.4375</v>
+        <v>44849.77083333334</v>
       </c>
       <c r="F284">
         <v>14</v>
       </c>
       <c r="G284" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H284" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284">
         <v>0</v>
       </c>
       <c r="K284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M284">
         <v>0</v>
       </c>
       <c r="N284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O284" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="P284" t="s">
         <v>83</v>
       </c>
       <c r="Q284">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R284">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S284">
         <v>7</v>
       </c>
       <c r="T284">
-        <v>2.25</v>
+        <v>3.95</v>
       </c>
       <c r="U284">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V284">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="W284">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="X284">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="Y284">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="Z284">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AA284">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AB284">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC284">
-        <v>1.61</v>
+        <v>3.2</v>
       </c>
       <c r="AD284">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AE284">
-        <v>5.2</v>
+        <v>2.33</v>
       </c>
       <c r="AF284">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG284">
-        <v>10.25</v>
+        <v>8.25</v>
       </c>
       <c r="AH284">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AI284">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AJ284">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="AK284">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AL284">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AM284">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AN284">
-        <v>1.16</v>
+        <v>1.68</v>
       </c>
       <c r="AO284">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AP284">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="AQ284">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AR284">
-        <v>0.9399999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="AS284">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="AT284">
-        <v>0.89</v>
+        <v>2</v>
       </c>
       <c r="AU284">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AV284">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="AW284">
-        <v>2.96</v>
+        <v>3.14</v>
       </c>
       <c r="AX284">
-        <v>1.29</v>
+        <v>2.76</v>
       </c>
       <c r="AY284">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
       <c r="AZ284">
-        <v>4.6</v>
+        <v>1.63</v>
       </c>
       <c r="BA284">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="BB284">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BC284">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="BD284">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="BE284">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="BF284">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG284">
+        <v>2</v>
+      </c>
+      <c r="BH284">
+        <v>8</v>
+      </c>
+      <c r="BI284">
         <v>6</v>
-      </c>
-      <c r="BH284">
-        <v>5</v>
-      </c>
-      <c r="BI284">
-        <v>7</v>
       </c>
       <c r="BJ284">
         <v>10</v>
       </c>
       <c r="BK284">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:63">
@@ -55644,7 +55647,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>3274759</v>
+        <v>3274762</v>
       </c>
       <c r="C285" t="s">
         <v>63</v>
@@ -55653,37 +55656,37 @@
         <v>64</v>
       </c>
       <c r="E285" s="2">
-        <v>44850.64583333334</v>
+        <v>44850.4375</v>
       </c>
       <c r="F285">
         <v>14</v>
       </c>
       <c r="G285" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H285" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285">
         <v>0</v>
       </c>
       <c r="K285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L285">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M285">
         <v>0</v>
       </c>
       <c r="N285">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O285" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="P285" t="s">
         <v>83</v>
@@ -55692,22 +55695,22 @@
         <v>3</v>
       </c>
       <c r="R285">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S285">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T285">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="U285">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="V285">
-        <v>5.84</v>
+        <v>4.75</v>
       </c>
       <c r="W285">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="X285">
         <v>2.65</v>
@@ -55716,118 +55719,118 @@
         <v>3.15</v>
       </c>
       <c r="Z285">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AA285">
-        <v>7.3</v>
+        <v>9.25</v>
       </c>
       <c r="AB285">
         <v>1.06</v>
       </c>
       <c r="AC285">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AD285">
         <v>3.4</v>
       </c>
       <c r="AE285">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="AF285">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG285">
-        <v>8.1</v>
+        <v>10.25</v>
       </c>
       <c r="AH285">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AI285">
-        <v>2.66</v>
+        <v>3.1</v>
       </c>
       <c r="AJ285">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AK285">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AL285">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AM285">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AN285">
         <v>1.16</v>
       </c>
       <c r="AO285">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AP285">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ285">
-        <v>1.28</v>
+        <v>1.79</v>
       </c>
       <c r="AR285">
-        <v>1.18</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS285">
-        <v>1.37</v>
+        <v>1.76</v>
       </c>
       <c r="AT285">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AU285">
+        <v>1.64</v>
+      </c>
+      <c r="AV285">
+        <v>1.32</v>
+      </c>
+      <c r="AW285">
+        <v>2.96</v>
+      </c>
+      <c r="AX285">
+        <v>1.29</v>
+      </c>
+      <c r="AY285">
+        <v>9.1</v>
+      </c>
+      <c r="AZ285">
+        <v>4.6</v>
+      </c>
+      <c r="BA285">
         <v>1.26</v>
       </c>
-      <c r="AV285">
-        <v>1.35</v>
-      </c>
-      <c r="AW285">
-        <v>2.61</v>
-      </c>
-      <c r="AX285">
-        <v>1.45</v>
-      </c>
-      <c r="AY285">
-        <v>9.4</v>
-      </c>
-      <c r="AZ285">
+      <c r="BB285">
+        <v>1.47</v>
+      </c>
+      <c r="BC285">
+        <v>1.87</v>
+      </c>
+      <c r="BD285">
+        <v>2.46</v>
+      </c>
+      <c r="BE285">
         <v>3.3</v>
       </c>
-      <c r="BA285">
-        <v>1.21</v>
-      </c>
-      <c r="BB285">
-        <v>1.4</v>
-      </c>
-      <c r="BC285">
-        <v>1.73</v>
-      </c>
-      <c r="BD285">
-        <v>2.24</v>
-      </c>
-      <c r="BE285">
-        <v>2.95</v>
-      </c>
       <c r="BF285">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG285">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH285">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI285">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ285">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK285">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:63">
@@ -55835,7 +55838,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>3274763</v>
+        <v>3274759</v>
       </c>
       <c r="C286" t="s">
         <v>63</v>
@@ -55844,181 +55847,181 @@
         <v>64</v>
       </c>
       <c r="E286" s="2">
-        <v>44850.77083333334</v>
+        <v>44850.64583333334</v>
       </c>
       <c r="F286">
         <v>14</v>
       </c>
       <c r="G286" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H286" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
       <c r="J286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O286" t="s">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="P286" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="Q286">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R286">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S286">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T286">
-        <v>2.55</v>
+        <v>2.41</v>
       </c>
       <c r="U286">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="V286">
-        <v>3.95</v>
+        <v>5.84</v>
       </c>
       <c r="W286">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="X286">
         <v>2.65</v>
       </c>
       <c r="Y286">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Z286">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AA286">
-        <v>8.75</v>
+        <v>7.3</v>
       </c>
       <c r="AB286">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC286">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AD286">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AE286">
-        <v>3.7</v>
+        <v>5.25</v>
       </c>
       <c r="AF286">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG286">
-        <v>10.25</v>
+        <v>8.1</v>
       </c>
       <c r="AH286">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AI286">
-        <v>3.15</v>
+        <v>2.66</v>
       </c>
       <c r="AJ286">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AK286">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AL286">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AM286">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="AN286">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AO286">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP286">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="AQ286">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AR286">
-        <v>1.72</v>
+        <v>1.18</v>
       </c>
       <c r="AS286">
         <v>1.37</v>
       </c>
       <c r="AT286">
-        <v>1.68</v>
+        <v>1.11</v>
       </c>
       <c r="AU286">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="AV286">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AW286">
-        <v>3.02</v>
+        <v>2.61</v>
       </c>
       <c r="AX286">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AY286">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AZ286">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BA286">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="BB286">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BC286">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="BD286">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="BE286">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="BF286">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BG286">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH286">
+        <v>3</v>
+      </c>
+      <c r="BI286">
+        <v>6</v>
+      </c>
+      <c r="BJ286">
+        <v>7</v>
+      </c>
+      <c r="BK286">
         <v>9</v>
-      </c>
-      <c r="BI286">
-        <v>4</v>
-      </c>
-      <c r="BJ286">
-        <v>19</v>
-      </c>
-      <c r="BK286">
-        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:63">
@@ -56026,7 +56029,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>3274764</v>
+        <v>3274763</v>
       </c>
       <c r="C287" t="s">
         <v>63</v>
@@ -56035,181 +56038,181 @@
         <v>64</v>
       </c>
       <c r="E287" s="2">
-        <v>44851.625</v>
+        <v>44850.77083333334</v>
       </c>
       <c r="F287">
         <v>14</v>
       </c>
       <c r="G287" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H287" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I287">
         <v>0</v>
       </c>
       <c r="J287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N287">
         <v>2</v>
       </c>
       <c r="O287" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="P287" t="s">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="Q287">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R287">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S287">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T287">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="U287">
         <v>2.05</v>
       </c>
       <c r="V287">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="W287">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X287">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="Y287">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="Z287">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AA287">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AB287">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC287">
-        <v>2.46</v>
+        <v>1.95</v>
       </c>
       <c r="AD287">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AE287">
-        <v>2.49</v>
+        <v>3.7</v>
       </c>
       <c r="AF287">
         <v>1.05</v>
       </c>
       <c r="AG287">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH287">
+        <v>1.32</v>
+      </c>
+      <c r="AI287">
+        <v>3.15</v>
+      </c>
+      <c r="AJ287">
+        <v>2.1</v>
+      </c>
+      <c r="AK287">
+        <v>1.7</v>
+      </c>
+      <c r="AL287">
+        <v>1.83</v>
+      </c>
+      <c r="AM287">
+        <v>1.9</v>
+      </c>
+      <c r="AN287">
+        <v>1.27</v>
+      </c>
+      <c r="AO287">
         <v>1.3</v>
       </c>
-      <c r="AI287">
-        <v>3.3</v>
-      </c>
-      <c r="AJ287">
-        <v>1.98</v>
-      </c>
-      <c r="AK287">
-        <v>1.84</v>
-      </c>
-      <c r="AL287">
+      <c r="AP287">
+        <v>1.8</v>
+      </c>
+      <c r="AQ287">
+        <v>1.39</v>
+      </c>
+      <c r="AR287">
+        <v>1.72</v>
+      </c>
+      <c r="AS287">
+        <v>1.37</v>
+      </c>
+      <c r="AT287">
         <v>1.68</v>
       </c>
-      <c r="AM287">
-        <v>2.1</v>
-      </c>
-      <c r="AN287">
-        <v>1.47</v>
-      </c>
-      <c r="AO287">
-        <v>1.32</v>
-      </c>
-      <c r="AP287">
-        <v>1.5</v>
-      </c>
-      <c r="AQ287">
-        <v>1</v>
-      </c>
-      <c r="AR287">
-        <v>1.65</v>
-      </c>
-      <c r="AS287">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT287">
-        <v>1.72</v>
-      </c>
       <c r="AU287">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AV287">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AW287">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="AX287">
-        <v>1.94</v>
+        <v>1.46</v>
       </c>
       <c r="AY287">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AZ287">
-        <v>2.21</v>
+        <v>3.5</v>
       </c>
       <c r="BA287">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="BB287">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="BC287">
-        <v>2.04</v>
+        <v>1.79</v>
       </c>
       <c r="BD287">
-        <v>2.72</v>
+        <v>2.33</v>
       </c>
       <c r="BE287">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="BF287">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG287">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH287">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI287">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ287">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BK287">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:63">
@@ -56217,7 +56220,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>3274765</v>
+        <v>3274764</v>
       </c>
       <c r="C288" t="s">
         <v>63</v>
@@ -56226,172 +56229,172 @@
         <v>64</v>
       </c>
       <c r="E288" s="2">
-        <v>44851.72916666666</v>
+        <v>44851.625</v>
       </c>
       <c r="F288">
         <v>14</v>
       </c>
       <c r="G288" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H288" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I288">
         <v>0</v>
       </c>
       <c r="J288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L288">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O288" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="P288" t="s">
-        <v>108</v>
+        <v>330</v>
       </c>
       <c r="Q288">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R288">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S288">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T288">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="U288">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="V288">
-        <v>4.25</v>
+        <v>3.1</v>
       </c>
       <c r="W288">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X288">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Y288">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Z288">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AA288">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AB288">
+        <v>1.08</v>
+      </c>
+      <c r="AC288">
+        <v>2.46</v>
+      </c>
+      <c r="AD288">
+        <v>3.2</v>
+      </c>
+      <c r="AE288">
+        <v>2.49</v>
+      </c>
+      <c r="AF288">
         <v>1.05</v>
       </c>
-      <c r="AC288">
-        <v>2.04</v>
-      </c>
-      <c r="AD288">
-        <v>3.05</v>
-      </c>
-      <c r="AE288">
-        <v>3.35</v>
-      </c>
-      <c r="AF288">
-        <v>1.1</v>
-      </c>
       <c r="AG288">
-        <v>7.15</v>
+        <v>10.75</v>
       </c>
       <c r="AH288">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AI288">
-        <v>2.52</v>
+        <v>3.3</v>
       </c>
       <c r="AJ288">
-        <v>2.34</v>
+        <v>1.98</v>
       </c>
       <c r="AK288">
+        <v>1.84</v>
+      </c>
+      <c r="AL288">
+        <v>1.68</v>
+      </c>
+      <c r="AM288">
+        <v>2.1</v>
+      </c>
+      <c r="AN288">
         <v>1.47</v>
-      </c>
-      <c r="AL288">
-        <v>2.11</v>
-      </c>
-      <c r="AM288">
-        <v>1.73</v>
-      </c>
-      <c r="AN288">
-        <v>1.34</v>
       </c>
       <c r="AO288">
         <v>1.32</v>
       </c>
       <c r="AP288">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ288">
-        <v>1.61</v>
+        <v>1</v>
       </c>
       <c r="AR288">
-        <v>1.11</v>
+        <v>1.65</v>
       </c>
       <c r="AS288">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT288">
+        <v>1.72</v>
+      </c>
+      <c r="AU288">
         <v>1.68</v>
       </c>
-      <c r="AT288">
-        <v>1.05</v>
-      </c>
-      <c r="AU288">
-        <v>1.29</v>
-      </c>
       <c r="AV288">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="AW288">
-        <v>2.41</v>
+        <v>2.94</v>
       </c>
       <c r="AX288">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="AY288">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AZ288">
-        <v>3.1</v>
+        <v>2.21</v>
       </c>
       <c r="BA288">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="BB288">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="BC288">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="BD288">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="BE288">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="BF288">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG288">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH288">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI288">
         <v>3</v>
@@ -56400,7 +56403,7 @@
         <v>6</v>
       </c>
       <c r="BK288">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:63">
@@ -56408,7 +56411,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>3274758</v>
+        <v>3274765</v>
       </c>
       <c r="C289" t="s">
         <v>63</v>
@@ -56417,16 +56420,16 @@
         <v>64</v>
       </c>
       <c r="E289" s="2">
-        <v>44851.85416666666</v>
+        <v>44851.72916666666</v>
       </c>
       <c r="F289">
         <v>14</v>
       </c>
       <c r="G289" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H289" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I289">
         <v>0</v>
@@ -56438,160 +56441,160 @@
         <v>1</v>
       </c>
       <c r="L289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N289">
         <v>3</v>
       </c>
       <c r="O289" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P289" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="Q289">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R289">
         <v>4</v>
       </c>
       <c r="S289">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T289">
-        <v>8.869999999999999</v>
+        <v>3.06</v>
       </c>
       <c r="U289">
-        <v>2.77</v>
+        <v>2.04</v>
       </c>
       <c r="V289">
-        <v>1.7</v>
+        <v>4.25</v>
       </c>
       <c r="W289">
+        <v>1.53</v>
+      </c>
+      <c r="X289">
+        <v>2.55</v>
+      </c>
+      <c r="Y289">
+        <v>3.4</v>
+      </c>
+      <c r="Z289">
+        <v>1.26</v>
+      </c>
+      <c r="AA289">
+        <v>7.8</v>
+      </c>
+      <c r="AB289">
+        <v>1.05</v>
+      </c>
+      <c r="AC289">
+        <v>2.04</v>
+      </c>
+      <c r="AD289">
+        <v>3.05</v>
+      </c>
+      <c r="AE289">
+        <v>3.35</v>
+      </c>
+      <c r="AF289">
+        <v>1.1</v>
+      </c>
+      <c r="AG289">
+        <v>7.15</v>
+      </c>
+      <c r="AH289">
+        <v>1.42</v>
+      </c>
+      <c r="AI289">
+        <v>2.52</v>
+      </c>
+      <c r="AJ289">
+        <v>2.34</v>
+      </c>
+      <c r="AK289">
+        <v>1.47</v>
+      </c>
+      <c r="AL289">
+        <v>2.11</v>
+      </c>
+      <c r="AM289">
+        <v>1.73</v>
+      </c>
+      <c r="AN289">
+        <v>1.34</v>
+      </c>
+      <c r="AO289">
+        <v>1.32</v>
+      </c>
+      <c r="AP289">
+        <v>1.71</v>
+      </c>
+      <c r="AQ289">
+        <v>1.61</v>
+      </c>
+      <c r="AR289">
+        <v>1.11</v>
+      </c>
+      <c r="AS289">
+        <v>1.68</v>
+      </c>
+      <c r="AT289">
+        <v>1.05</v>
+      </c>
+      <c r="AU289">
+        <v>1.29</v>
+      </c>
+      <c r="AV289">
+        <v>1.12</v>
+      </c>
+      <c r="AW289">
+        <v>2.41</v>
+      </c>
+      <c r="AX289">
+        <v>1.52</v>
+      </c>
+      <c r="AY289">
+        <v>8</v>
+      </c>
+      <c r="AZ289">
+        <v>3.1</v>
+      </c>
+      <c r="BA289">
         <v>1.25</v>
       </c>
-      <c r="X289">
-        <v>3.75</v>
-      </c>
-      <c r="Y289">
-        <v>2.43</v>
-      </c>
-      <c r="Z289">
-        <v>1.56</v>
-      </c>
-      <c r="AA289">
-        <v>4.84</v>
-      </c>
-      <c r="AB289">
-        <v>1.13</v>
-      </c>
-      <c r="AC289">
-        <v>8.5</v>
-      </c>
-      <c r="AD289">
-        <v>6.2</v>
-      </c>
-      <c r="AE289">
-        <v>1.19</v>
-      </c>
-      <c r="AF289">
-        <v>1.02</v>
-      </c>
-      <c r="AG289">
-        <v>16</v>
-      </c>
-      <c r="AH289">
-        <v>1.17</v>
-      </c>
-      <c r="AI289">
-        <v>4.24</v>
-      </c>
-      <c r="AJ289">
-        <v>1.51</v>
-      </c>
-      <c r="AK289">
-        <v>2.23</v>
-      </c>
-      <c r="AL289">
-        <v>2.18</v>
-      </c>
-      <c r="AM289">
-        <v>1.68</v>
-      </c>
-      <c r="AN289">
-        <v>4.05</v>
-      </c>
-      <c r="AO289">
-        <v>1.14</v>
-      </c>
-      <c r="AP289">
-        <v>1.05</v>
-      </c>
-      <c r="AQ289">
-        <v>0.47</v>
-      </c>
-      <c r="AR289">
-        <v>2.06</v>
-      </c>
-      <c r="AS289">
-        <v>0.44</v>
-      </c>
-      <c r="AT289">
-        <v>2.11</v>
-      </c>
-      <c r="AU289">
-        <v>1.17</v>
-      </c>
-      <c r="AV289">
-        <v>2</v>
-      </c>
-      <c r="AW289">
-        <v>3.17</v>
-      </c>
-      <c r="AX289">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AY289">
-        <v>13.25</v>
-      </c>
-      <c r="AZ289">
-        <v>1.09</v>
-      </c>
-      <c r="BA289">
-        <v>1.27</v>
-      </c>
       <c r="BB289">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="BC289">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BD289">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BE289">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="BF289">
         <v>3</v>
       </c>
       <c r="BG289">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BH289">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ289">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK289">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:63">
@@ -56599,7 +56602,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>3274768</v>
+        <v>3274758</v>
       </c>
       <c r="C290" t="s">
         <v>63</v>
@@ -56608,181 +56611,181 @@
         <v>64</v>
       </c>
       <c r="E290" s="2">
-        <v>44855.63541666666</v>
+        <v>44851.85416666666</v>
       </c>
       <c r="F290">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G290" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H290" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I290">
         <v>0</v>
       </c>
       <c r="J290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N290">
         <v>3</v>
       </c>
       <c r="O290" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P290" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="Q290">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R290">
         <v>4</v>
       </c>
       <c r="S290">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T290">
-        <v>2.52</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="U290">
-        <v>2.22</v>
+        <v>2.77</v>
       </c>
       <c r="V290">
-        <v>4.56</v>
+        <v>1.7</v>
       </c>
       <c r="W290">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="X290">
-        <v>2.65</v>
+        <v>3.75</v>
       </c>
       <c r="Y290">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="Z290">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AA290">
+        <v>4.84</v>
+      </c>
+      <c r="AB290">
+        <v>1.13</v>
+      </c>
+      <c r="AC290">
+        <v>8.5</v>
+      </c>
+      <c r="AD290">
+        <v>6.2</v>
+      </c>
+      <c r="AE290">
+        <v>1.19</v>
+      </c>
+      <c r="AF290">
+        <v>1.02</v>
+      </c>
+      <c r="AG290">
+        <v>16</v>
+      </c>
+      <c r="AH290">
+        <v>1.17</v>
+      </c>
+      <c r="AI290">
+        <v>4.24</v>
+      </c>
+      <c r="AJ290">
+        <v>1.51</v>
+      </c>
+      <c r="AK290">
+        <v>2.23</v>
+      </c>
+      <c r="AL290">
+        <v>2.18</v>
+      </c>
+      <c r="AM290">
+        <v>1.68</v>
+      </c>
+      <c r="AN290">
+        <v>4.05</v>
+      </c>
+      <c r="AO290">
+        <v>1.14</v>
+      </c>
+      <c r="AP290">
+        <v>1.05</v>
+      </c>
+      <c r="AQ290">
+        <v>0.47</v>
+      </c>
+      <c r="AR290">
+        <v>2.06</v>
+      </c>
+      <c r="AS290">
+        <v>0.44</v>
+      </c>
+      <c r="AT290">
+        <v>2.15</v>
+      </c>
+      <c r="AU290">
+        <v>1.17</v>
+      </c>
+      <c r="AV290">
+        <v>2</v>
+      </c>
+      <c r="AW290">
+        <v>3.17</v>
+      </c>
+      <c r="AX290">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY290">
+        <v>13.25</v>
+      </c>
+      <c r="AZ290">
+        <v>1.09</v>
+      </c>
+      <c r="BA290">
+        <v>1.27</v>
+      </c>
+      <c r="BB290">
+        <v>1.49</v>
+      </c>
+      <c r="BC290">
+        <v>1.9</v>
+      </c>
+      <c r="BD290">
+        <v>2.5</v>
+      </c>
+      <c r="BE290">
+        <v>3.4</v>
+      </c>
+      <c r="BF290">
+        <v>3</v>
+      </c>
+      <c r="BG290">
+        <v>9</v>
+      </c>
+      <c r="BH290">
+        <v>4</v>
+      </c>
+      <c r="BI290">
+        <v>1</v>
+      </c>
+      <c r="BJ290">
         <v>7</v>
       </c>
-      <c r="AB290">
-        <v>1.07</v>
-      </c>
-      <c r="AC290">
-        <v>1.82</v>
-      </c>
-      <c r="AD290">
-        <v>3.35</v>
-      </c>
-      <c r="AE290">
-        <v>3.7</v>
-      </c>
-      <c r="AF290">
-        <v>1.03</v>
-      </c>
-      <c r="AG290">
+      <c r="BK290">
         <v>10</v>
-      </c>
-      <c r="AH290">
-        <v>1.25</v>
-      </c>
-      <c r="AI290">
-        <v>3.5</v>
-      </c>
-      <c r="AJ290">
-        <v>2.01</v>
-      </c>
-      <c r="AK290">
-        <v>1.79</v>
-      </c>
-      <c r="AL290">
-        <v>1.82</v>
-      </c>
-      <c r="AM290">
-        <v>1.93</v>
-      </c>
-      <c r="AN290">
-        <v>1.23</v>
-      </c>
-      <c r="AO290">
-        <v>1.27</v>
-      </c>
-      <c r="AP290">
-        <v>1.96</v>
-      </c>
-      <c r="AQ290">
-        <v>1.47</v>
-      </c>
-      <c r="AR290">
-        <v>1.06</v>
-      </c>
-      <c r="AS290">
-        <v>1.56</v>
-      </c>
-      <c r="AT290">
-        <v>1</v>
-      </c>
-      <c r="AU290">
-        <v>1.46</v>
-      </c>
-      <c r="AV290">
-        <v>1.52</v>
-      </c>
-      <c r="AW290">
-        <v>2.98</v>
-      </c>
-      <c r="AX290">
-        <v>1.55</v>
-      </c>
-      <c r="AY290">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AZ290">
-        <v>3</v>
-      </c>
-      <c r="BA290">
-        <v>1.23</v>
-      </c>
-      <c r="BB290">
-        <v>1.42</v>
-      </c>
-      <c r="BC290">
-        <v>1.77</v>
-      </c>
-      <c r="BD290">
-        <v>2.18</v>
-      </c>
-      <c r="BE290">
-        <v>2.75</v>
-      </c>
-      <c r="BF290">
-        <v>3</v>
-      </c>
-      <c r="BG290">
-        <v>2</v>
-      </c>
-      <c r="BH290">
-        <v>5</v>
-      </c>
-      <c r="BI290">
-        <v>3</v>
-      </c>
-      <c r="BJ290">
-        <v>8</v>
-      </c>
-      <c r="BK290">
-        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:63">
@@ -56790,7 +56793,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>3274771</v>
+        <v>3274768</v>
       </c>
       <c r="C291" t="s">
         <v>63</v>
@@ -56799,91 +56802,91 @@
         <v>64</v>
       </c>
       <c r="E291" s="2">
-        <v>44856.6875</v>
+        <v>44855.63541666666</v>
       </c>
       <c r="F291">
         <v>15</v>
       </c>
       <c r="G291" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H291" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291">
         <v>0</v>
       </c>
       <c r="K291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L291">
         <v>2</v>
       </c>
       <c r="M291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N291">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O291" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P291" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="Q291">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R291">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S291">
+        <v>11</v>
+      </c>
+      <c r="T291">
+        <v>2.52</v>
+      </c>
+      <c r="U291">
+        <v>2.22</v>
+      </c>
+      <c r="V291">
+        <v>4.56</v>
+      </c>
+      <c r="W291">
+        <v>1.43</v>
+      </c>
+      <c r="X291">
+        <v>2.65</v>
+      </c>
+      <c r="Y291">
+        <v>2.7</v>
+      </c>
+      <c r="Z291">
+        <v>1.4</v>
+      </c>
+      <c r="AA291">
+        <v>7</v>
+      </c>
+      <c r="AB291">
+        <v>1.07</v>
+      </c>
+      <c r="AC291">
+        <v>1.82</v>
+      </c>
+      <c r="AD291">
+        <v>3.35</v>
+      </c>
+      <c r="AE291">
+        <v>3.7</v>
+      </c>
+      <c r="AF291">
+        <v>1.03</v>
+      </c>
+      <c r="AG291">
         <v>10</v>
-      </c>
-      <c r="T291">
-        <v>2.01</v>
-      </c>
-      <c r="U291">
-        <v>2.35</v>
-      </c>
-      <c r="V291">
-        <v>6.79</v>
-      </c>
-      <c r="W291">
-        <v>1.41</v>
-      </c>
-      <c r="X291">
-        <v>2.69</v>
-      </c>
-      <c r="Y291">
-        <v>3.01</v>
-      </c>
-      <c r="Z291">
-        <v>1.32</v>
-      </c>
-      <c r="AA291">
-        <v>6.5</v>
-      </c>
-      <c r="AB291">
-        <v>1.08</v>
-      </c>
-      <c r="AC291">
-        <v>1.47</v>
-      </c>
-      <c r="AD291">
-        <v>4.58</v>
-      </c>
-      <c r="AE291">
-        <v>7.26</v>
-      </c>
-      <c r="AF291">
-        <v>1.02</v>
-      </c>
-      <c r="AG291">
-        <v>11</v>
       </c>
       <c r="AH291">
         <v>1.25</v>
@@ -56892,88 +56895,88 @@
         <v>3.5</v>
       </c>
       <c r="AJ291">
+        <v>2.01</v>
+      </c>
+      <c r="AK291">
+        <v>1.79</v>
+      </c>
+      <c r="AL291">
+        <v>1.82</v>
+      </c>
+      <c r="AM291">
         <v>1.93</v>
       </c>
-      <c r="AK291">
-        <v>1.86</v>
-      </c>
-      <c r="AL291">
-        <v>2.09</v>
-      </c>
-      <c r="AM291">
-        <v>1.7</v>
-      </c>
       <c r="AN291">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="AO291">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AP291">
-        <v>2.95</v>
+        <v>1.96</v>
       </c>
       <c r="AQ291">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="AR291">
-        <v>0.5600000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AS291">
-        <v>1.16</v>
+        <v>1.56</v>
       </c>
       <c r="AT291">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="AU291">
-        <v>1.89</v>
+        <v>1.46</v>
       </c>
       <c r="AV291">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="AW291">
-        <v>3.11</v>
+        <v>2.98</v>
       </c>
       <c r="AX291">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="AY291">
-        <v>10</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AZ291">
-        <v>4.74</v>
+        <v>3</v>
       </c>
       <c r="BA291">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="BB291">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="BC291">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BD291">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="BE291">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="BF291">
+        <v>3</v>
+      </c>
+      <c r="BG291">
+        <v>2</v>
+      </c>
+      <c r="BH291">
+        <v>5</v>
+      </c>
+      <c r="BI291">
+        <v>3</v>
+      </c>
+      <c r="BJ291">
         <v>8</v>
       </c>
-      <c r="BG291">
-        <v>6</v>
-      </c>
-      <c r="BH291">
-        <v>7</v>
-      </c>
-      <c r="BI291">
-        <v>3</v>
-      </c>
-      <c r="BJ291">
-        <v>15</v>
-      </c>
       <c r="BK291">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:63">
@@ -56981,7 +56984,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>3274769</v>
+        <v>3274771</v>
       </c>
       <c r="C292" t="s">
         <v>63</v>
@@ -56990,181 +56993,181 @@
         <v>64</v>
       </c>
       <c r="E292" s="2">
-        <v>44856.79166666666</v>
+        <v>44856.6875</v>
       </c>
       <c r="F292">
         <v>15</v>
       </c>
       <c r="G292" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H292" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K292">
         <v>1</v>
       </c>
       <c r="L292">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N292">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O292" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="P292" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q292">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R292">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S292">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T292">
-        <v>5.68</v>
+        <v>2.01</v>
       </c>
       <c r="U292">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="V292">
-        <v>2.43</v>
+        <v>6.79</v>
       </c>
       <c r="W292">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="X292">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="Y292">
-        <v>3.33</v>
+        <v>3.01</v>
       </c>
       <c r="Z292">
         <v>1.32</v>
       </c>
       <c r="AA292">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB292">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AC292">
+        <v>1.47</v>
+      </c>
+      <c r="AD292">
         <v>4.58</v>
       </c>
-      <c r="AD292">
-        <v>3.36</v>
-      </c>
       <c r="AE292">
+        <v>7.26</v>
+      </c>
+      <c r="AF292">
+        <v>1.02</v>
+      </c>
+      <c r="AG292">
+        <v>11</v>
+      </c>
+      <c r="AH292">
+        <v>1.25</v>
+      </c>
+      <c r="AI292">
+        <v>3.5</v>
+      </c>
+      <c r="AJ292">
         <v>1.93</v>
       </c>
-      <c r="AF292">
-        <v>1.05</v>
-      </c>
-      <c r="AG292">
+      <c r="AK292">
+        <v>1.86</v>
+      </c>
+      <c r="AL292">
+        <v>2.09</v>
+      </c>
+      <c r="AM292">
+        <v>1.7</v>
+      </c>
+      <c r="AN292">
+        <v>1.09</v>
+      </c>
+      <c r="AO292">
+        <v>1.19</v>
+      </c>
+      <c r="AP292">
+        <v>2.95</v>
+      </c>
+      <c r="AQ292">
+        <v>1.22</v>
+      </c>
+      <c r="AR292">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS292">
+        <v>1.16</v>
+      </c>
+      <c r="AT292">
+        <v>0.68</v>
+      </c>
+      <c r="AU292">
+        <v>1.89</v>
+      </c>
+      <c r="AV292">
+        <v>1.22</v>
+      </c>
+      <c r="AW292">
+        <v>3.11</v>
+      </c>
+      <c r="AX292">
+        <v>1.25</v>
+      </c>
+      <c r="AY292">
+        <v>10</v>
+      </c>
+      <c r="AZ292">
+        <v>4.74</v>
+      </c>
+      <c r="BA292">
+        <v>1.2</v>
+      </c>
+      <c r="BB292">
+        <v>1.36</v>
+      </c>
+      <c r="BC292">
+        <v>1.7</v>
+      </c>
+      <c r="BD292">
+        <v>2.08</v>
+      </c>
+      <c r="BE292">
+        <v>2.8</v>
+      </c>
+      <c r="BF292">
         <v>8</v>
       </c>
-      <c r="AH292">
-        <v>1.36</v>
-      </c>
-      <c r="AI292">
-        <v>2.88</v>
-      </c>
-      <c r="AJ292">
-        <v>2.25</v>
-      </c>
-      <c r="AK292">
-        <v>1.6</v>
-      </c>
-      <c r="AL292">
-        <v>2.12</v>
-      </c>
-      <c r="AM292">
-        <v>1.72</v>
-      </c>
-      <c r="AN292">
-        <v>2.17</v>
-      </c>
-      <c r="AO292">
-        <v>1.3</v>
-      </c>
-      <c r="AP292">
-        <v>1.17</v>
-      </c>
-      <c r="AQ292">
-        <v>1.35</v>
-      </c>
-      <c r="AR292">
-        <v>1.88</v>
-      </c>
-      <c r="AS292">
-        <v>1.28</v>
-      </c>
-      <c r="AT292">
-        <v>1.94</v>
-      </c>
-      <c r="AU292">
-        <v>1.44</v>
-      </c>
-      <c r="AV292">
-        <v>1.63</v>
-      </c>
-      <c r="AW292">
-        <v>3.07</v>
-      </c>
-      <c r="AX292">
-        <v>3.2</v>
-      </c>
-      <c r="AY292">
-        <v>8.5</v>
-      </c>
-      <c r="AZ292">
-        <v>1.45</v>
-      </c>
-      <c r="BA292">
-        <v>1.34</v>
-      </c>
-      <c r="BB292">
-        <v>1.66</v>
-      </c>
-      <c r="BC292">
-        <v>2.07</v>
-      </c>
-      <c r="BD292">
-        <v>2.35</v>
-      </c>
-      <c r="BE292">
-        <v>3.5</v>
-      </c>
-      <c r="BF292">
-        <v>4</v>
-      </c>
       <c r="BG292">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH292">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI292">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ292">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BK292">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:63">
@@ -57172,7 +57175,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>3274766</v>
+        <v>3274769</v>
       </c>
       <c r="C293" t="s">
         <v>63</v>
@@ -57181,175 +57184,175 @@
         <v>64</v>
       </c>
       <c r="E293" s="2">
-        <v>44857.51041666666</v>
+        <v>44856.79166666666</v>
       </c>
       <c r="F293">
         <v>15</v>
       </c>
       <c r="G293" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H293" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I293">
         <v>0</v>
       </c>
       <c r="J293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M293">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293" t="s">
+        <v>83</v>
+      </c>
+      <c r="P293" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q293">
         <v>4</v>
       </c>
-      <c r="O293" t="s">
-        <v>229</v>
-      </c>
-      <c r="P293" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q293">
-        <v>2</v>
-      </c>
       <c r="R293">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S293">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T293">
-        <v>2.52</v>
+        <v>5.68</v>
       </c>
       <c r="U293">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="V293">
-        <v>5.13</v>
+        <v>2.43</v>
       </c>
       <c r="W293">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="X293">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="Y293">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="Z293">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AA293">
-        <v>6.85</v>
+        <v>8.5</v>
       </c>
       <c r="AB293">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AC293">
-        <v>1.7</v>
+        <v>4.58</v>
       </c>
       <c r="AD293">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
       <c r="AE293">
-        <v>4.5</v>
+        <v>1.93</v>
       </c>
       <c r="AF293">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG293">
         <v>8</v>
       </c>
       <c r="AH293">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AI293">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="AJ293">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AK293">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AL293">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="AM293">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AN293">
-        <v>1.2</v>
+        <v>2.17</v>
       </c>
       <c r="AO293">
         <v>1.3</v>
       </c>
       <c r="AP293">
-        <v>2.05</v>
+        <v>1.17</v>
       </c>
       <c r="AQ293">
-        <v>0.88</v>
+        <v>1.35</v>
       </c>
       <c r="AR293">
-        <v>0.5</v>
+        <v>1.76</v>
       </c>
       <c r="AS293">
-        <v>0.83</v>
+        <v>1.28</v>
       </c>
       <c r="AT293">
-        <v>0.63</v>
+        <v>1.83</v>
       </c>
       <c r="AU293">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AV293">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AW293">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="AX293">
-        <v>1.83</v>
+        <v>3.2</v>
       </c>
       <c r="AY293">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ293">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="BA293">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="BB293">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="BC293">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="BD293">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="BE293">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="BF293">
         <v>4</v>
       </c>
       <c r="BG293">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BH293">
         <v>4</v>
       </c>
       <c r="BI293">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ293">
         <v>8</v>
@@ -57363,7 +57366,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>3274770</v>
+        <v>3274766</v>
       </c>
       <c r="C294" t="s">
         <v>63</v>
@@ -57372,181 +57375,181 @@
         <v>64</v>
       </c>
       <c r="E294" s="2">
-        <v>44857.66666666666</v>
+        <v>44857.51041666666</v>
       </c>
       <c r="F294">
         <v>15</v>
       </c>
       <c r="G294" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H294" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I294">
         <v>0</v>
       </c>
       <c r="J294">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K294">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M294">
         <v>3</v>
       </c>
       <c r="N294">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O294" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="P294" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q294">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R294">
+        <v>2</v>
+      </c>
+      <c r="S294">
         <v>4</v>
       </c>
-      <c r="S294">
-        <v>9</v>
-      </c>
       <c r="T294">
-        <v>4.31</v>
+        <v>2.52</v>
       </c>
       <c r="U294">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="V294">
-        <v>2.92</v>
+        <v>5.13</v>
       </c>
       <c r="W294">
         <v>1.45</v>
       </c>
       <c r="X294">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="Y294">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="Z294">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AA294">
-        <v>7.3</v>
+        <v>6.85</v>
       </c>
       <c r="AB294">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC294">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="AD294">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AE294">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="AF294">
         <v>1.07</v>
       </c>
       <c r="AG294">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="AH294">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AI294">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="AJ294">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AK294">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="AL294">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="AM294">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AN294">
-        <v>1.71</v>
+        <v>1.2</v>
       </c>
       <c r="AO294">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AP294">
-        <v>1.31</v>
+        <v>2.05</v>
       </c>
       <c r="AQ294">
-        <v>1.47</v>
+        <v>0.88</v>
       </c>
       <c r="AR294">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AS294">
-        <v>1.39</v>
+        <v>0.83</v>
       </c>
       <c r="AT294">
-        <v>2.06</v>
+        <v>0.63</v>
       </c>
       <c r="AU294">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AV294">
-        <v>1.73</v>
+        <v>1.2</v>
       </c>
       <c r="AW294">
-        <v>3.23</v>
+        <v>2.62</v>
       </c>
       <c r="AX294">
+        <v>1.83</v>
+      </c>
+      <c r="AY294">
+        <v>7.5</v>
+      </c>
+      <c r="AZ294">
         <v>2.3</v>
       </c>
-      <c r="AY294">
+      <c r="BA294">
+        <v>1.36</v>
+      </c>
+      <c r="BB294">
+        <v>1.64</v>
+      </c>
+      <c r="BC294">
+        <v>2.01</v>
+      </c>
+      <c r="BD294">
+        <v>2.6</v>
+      </c>
+      <c r="BE294">
+        <v>3.6</v>
+      </c>
+      <c r="BF294">
+        <v>4</v>
+      </c>
+      <c r="BG294">
         <v>8</v>
       </c>
-      <c r="AZ294">
-        <v>1.8</v>
-      </c>
-      <c r="BA294">
-        <v>1.2</v>
-      </c>
-      <c r="BB294">
-        <v>1.51</v>
-      </c>
-      <c r="BC294">
-        <v>1.83</v>
-      </c>
-      <c r="BD294">
-        <v>2.24</v>
-      </c>
-      <c r="BE294">
-        <v>2.85</v>
-      </c>
-      <c r="BF294">
-        <v>0</v>
-      </c>
-      <c r="BG294">
+      <c r="BH294">
         <v>4</v>
       </c>
-      <c r="BH294">
-        <v>12</v>
-      </c>
       <c r="BI294">
         <v>3</v>
       </c>
       <c r="BJ294">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BK294">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:63">
@@ -57554,7 +57557,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>3274773</v>
+        <v>3274770</v>
       </c>
       <c r="C295" t="s">
         <v>63</v>
@@ -57563,181 +57566,181 @@
         <v>64</v>
       </c>
       <c r="E295" s="2">
-        <v>44857.8125</v>
+        <v>44857.66666666666</v>
       </c>
       <c r="F295">
         <v>15</v>
       </c>
       <c r="G295" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H295" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J295">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M295">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O295" t="s">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="P295" t="s">
-        <v>83</v>
+        <v>335</v>
       </c>
       <c r="Q295">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R295">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S295">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T295">
-        <v>2.23</v>
+        <v>4.31</v>
       </c>
       <c r="U295">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="V295">
-        <v>6.3</v>
+        <v>2.92</v>
       </c>
       <c r="W295">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X295">
+        <v>2.58</v>
+      </c>
+      <c r="Y295">
+        <v>3.3</v>
+      </c>
+      <c r="Z295">
+        <v>1.25</v>
+      </c>
+      <c r="AA295">
+        <v>7.3</v>
+      </c>
+      <c r="AB295">
+        <v>1.06</v>
+      </c>
+      <c r="AC295">
+        <v>3.3</v>
+      </c>
+      <c r="AD295">
+        <v>3.1</v>
+      </c>
+      <c r="AE295">
+        <v>2.05</v>
+      </c>
+      <c r="AF295">
+        <v>1.07</v>
+      </c>
+      <c r="AG295">
+        <v>7.75</v>
+      </c>
+      <c r="AH295">
+        <v>1.34</v>
+      </c>
+      <c r="AI295">
         <v>2.82</v>
       </c>
-      <c r="Y295">
-        <v>3.22</v>
-      </c>
-      <c r="Z295">
-        <v>1.36</v>
-      </c>
-      <c r="AA295">
-        <v>6.85</v>
-      </c>
-      <c r="AB295">
-        <v>1.07</v>
-      </c>
-      <c r="AC295">
+      <c r="AJ295">
+        <v>2.1</v>
+      </c>
+      <c r="AK295">
+        <v>1.66</v>
+      </c>
+      <c r="AL295">
+        <v>1.92</v>
+      </c>
+      <c r="AM295">
+        <v>1.88</v>
+      </c>
+      <c r="AN295">
+        <v>1.71</v>
+      </c>
+      <c r="AO295">
+        <v>1.34</v>
+      </c>
+      <c r="AP295">
+        <v>1.31</v>
+      </c>
+      <c r="AQ295">
+        <v>1.47</v>
+      </c>
+      <c r="AR295">
+        <v>2</v>
+      </c>
+      <c r="AS295">
+        <v>1.39</v>
+      </c>
+      <c r="AT295">
+        <v>2.06</v>
+      </c>
+      <c r="AU295">
         <v>1.5</v>
       </c>
-      <c r="AD295">
-        <v>3.75</v>
-      </c>
-      <c r="AE295">
-        <v>6</v>
-      </c>
-      <c r="AF295">
-        <v>1.06</v>
-      </c>
-      <c r="AG295">
-        <v>9</v>
-      </c>
-      <c r="AH295">
-        <v>1.32</v>
-      </c>
-      <c r="AI295">
-        <v>2.92</v>
-      </c>
-      <c r="AJ295">
-        <v>2.03</v>
-      </c>
-      <c r="AK295">
-        <v>1.7</v>
-      </c>
-      <c r="AL295">
-        <v>2.12</v>
-      </c>
-      <c r="AM295">
-        <v>1.72</v>
-      </c>
-      <c r="AN295">
-        <v>1.13</v>
-      </c>
-      <c r="AO295">
-        <v>1.23</v>
-      </c>
-      <c r="AP295">
-        <v>2.6</v>
-      </c>
-      <c r="AQ295">
-        <v>2.28</v>
-      </c>
-      <c r="AR295">
-        <v>1.76</v>
-      </c>
-      <c r="AS295">
-        <v>2.32</v>
-      </c>
-      <c r="AT295">
-        <v>1.67</v>
-      </c>
-      <c r="AU295">
-        <v>1.85</v>
-      </c>
       <c r="AV295">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AW295">
-        <v>3.29</v>
+        <v>3.23</v>
       </c>
       <c r="AX295">
-        <v>1.61</v>
+        <v>2.3</v>
       </c>
       <c r="AY295">
         <v>8</v>
       </c>
       <c r="AZ295">
-        <v>2.76</v>
+        <v>1.8</v>
       </c>
       <c r="BA295">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="BB295">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="BC295">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="BD295">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="BE295">
-        <v>3.8</v>
+        <v>2.85</v>
       </c>
       <c r="BF295">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BG295">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH295">
+        <v>12</v>
+      </c>
+      <c r="BI295">
+        <v>3</v>
+      </c>
+      <c r="BJ295">
+        <v>12</v>
+      </c>
+      <c r="BK295">
         <v>7</v>
-      </c>
-      <c r="BI295">
-        <v>8</v>
-      </c>
-      <c r="BJ295">
-        <v>15</v>
-      </c>
-      <c r="BK295">
-        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:63">
@@ -57745,7 +57748,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>3274767</v>
+        <v>3274773</v>
       </c>
       <c r="C296" t="s">
         <v>63</v>
@@ -57754,181 +57757,181 @@
         <v>64</v>
       </c>
       <c r="E296" s="2">
-        <v>44858.67708333334</v>
+        <v>44857.8125</v>
       </c>
       <c r="F296">
         <v>15</v>
       </c>
       <c r="G296" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H296" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L296">
         <v>2</v>
       </c>
       <c r="M296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N296">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O296" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P296" t="s">
-        <v>336</v>
+        <v>83</v>
       </c>
       <c r="Q296">
+        <v>6</v>
+      </c>
+      <c r="R296">
         <v>5</v>
       </c>
-      <c r="R296">
-        <v>3</v>
-      </c>
       <c r="S296">
+        <v>11</v>
+      </c>
+      <c r="T296">
+        <v>2.23</v>
+      </c>
+      <c r="U296">
+        <v>2.25</v>
+      </c>
+      <c r="V296">
+        <v>6.3</v>
+      </c>
+      <c r="W296">
+        <v>1.44</v>
+      </c>
+      <c r="X296">
+        <v>2.82</v>
+      </c>
+      <c r="Y296">
+        <v>3.22</v>
+      </c>
+      <c r="Z296">
+        <v>1.36</v>
+      </c>
+      <c r="AA296">
+        <v>6.85</v>
+      </c>
+      <c r="AB296">
+        <v>1.07</v>
+      </c>
+      <c r="AC296">
+        <v>1.5</v>
+      </c>
+      <c r="AD296">
+        <v>3.75</v>
+      </c>
+      <c r="AE296">
+        <v>6</v>
+      </c>
+      <c r="AF296">
+        <v>1.06</v>
+      </c>
+      <c r="AG296">
+        <v>9</v>
+      </c>
+      <c r="AH296">
+        <v>1.32</v>
+      </c>
+      <c r="AI296">
+        <v>2.92</v>
+      </c>
+      <c r="AJ296">
+        <v>2.03</v>
+      </c>
+      <c r="AK296">
+        <v>1.7</v>
+      </c>
+      <c r="AL296">
+        <v>2.12</v>
+      </c>
+      <c r="AM296">
+        <v>1.72</v>
+      </c>
+      <c r="AN296">
+        <v>1.13</v>
+      </c>
+      <c r="AO296">
+        <v>1.23</v>
+      </c>
+      <c r="AP296">
+        <v>2.6</v>
+      </c>
+      <c r="AQ296">
+        <v>2.28</v>
+      </c>
+      <c r="AR296">
+        <v>1.76</v>
+      </c>
+      <c r="AS296">
+        <v>2.32</v>
+      </c>
+      <c r="AT296">
+        <v>1.67</v>
+      </c>
+      <c r="AU296">
+        <v>1.85</v>
+      </c>
+      <c r="AV296">
+        <v>1.44</v>
+      </c>
+      <c r="AW296">
+        <v>3.29</v>
+      </c>
+      <c r="AX296">
+        <v>1.61</v>
+      </c>
+      <c r="AY296">
         <v>8</v>
       </c>
-      <c r="T296">
-        <v>2.78</v>
-      </c>
-      <c r="U296">
-        <v>2.14</v>
-      </c>
-      <c r="V296">
-        <v>4.48</v>
-      </c>
-      <c r="W296">
-        <v>1.47</v>
-      </c>
-      <c r="X296">
-        <v>2.74</v>
-      </c>
-      <c r="Y296">
-        <v>3.33</v>
-      </c>
-      <c r="Z296">
-        <v>1.34</v>
-      </c>
-      <c r="AA296">
-        <v>10</v>
-      </c>
-      <c r="AB296">
-        <v>1.06</v>
-      </c>
-      <c r="AC296">
-        <v>1.95</v>
-      </c>
-      <c r="AD296">
-        <v>3.3</v>
-      </c>
-      <c r="AE296">
-        <v>3.75</v>
-      </c>
-      <c r="AF296">
-        <v>1.04</v>
-      </c>
-      <c r="AG296">
-        <v>8.5</v>
-      </c>
-      <c r="AH296">
-        <v>1.38</v>
-      </c>
-      <c r="AI296">
-        <v>3.03</v>
-      </c>
-      <c r="AJ296">
-        <v>2.15</v>
-      </c>
-      <c r="AK296">
-        <v>1.65</v>
-      </c>
-      <c r="AL296">
-        <v>1.93</v>
-      </c>
-      <c r="AM296">
-        <v>1.88</v>
-      </c>
-      <c r="AN296">
-        <v>1.27</v>
-      </c>
-      <c r="AO296">
+      <c r="AZ296">
+        <v>2.76</v>
+      </c>
+      <c r="BA296">
         <v>1.32</v>
       </c>
-      <c r="AP296">
-        <v>1.83</v>
-      </c>
-      <c r="AQ296">
-        <v>1.59</v>
-      </c>
-      <c r="AR296">
-        <v>1.06</v>
-      </c>
-      <c r="AS296">
-        <v>1.56</v>
-      </c>
-      <c r="AT296">
-        <v>1.06</v>
-      </c>
-      <c r="AU296">
-        <v>1.23</v>
-      </c>
-      <c r="AV296">
-        <v>1.36</v>
-      </c>
-      <c r="AW296">
-        <v>2.59</v>
-      </c>
-      <c r="AX296">
-        <v>1.73</v>
-      </c>
-      <c r="AY296">
-        <v>7.5</v>
-      </c>
-      <c r="AZ296">
-        <v>2.4</v>
-      </c>
-      <c r="BA296">
-        <v>1.31</v>
-      </c>
       <c r="BB296">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BC296">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="BD296">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BE296">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BF296">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG296">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH296">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI296">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ296">
+        <v>15</v>
+      </c>
+      <c r="BK296">
         <v>11</v>
-      </c>
-      <c r="BK296">
-        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:63">
@@ -57936,7 +57939,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>3274772</v>
+        <v>3274767</v>
       </c>
       <c r="C297" t="s">
         <v>63</v>
@@ -57951,175 +57954,557 @@
         <v>15</v>
       </c>
       <c r="G297" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H297" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297">
         <v>1</v>
       </c>
       <c r="K297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N297">
         <v>4</v>
       </c>
       <c r="O297" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P297" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q297">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R297">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S297">
+        <v>8</v>
+      </c>
+      <c r="T297">
+        <v>2.78</v>
+      </c>
+      <c r="U297">
+        <v>2.14</v>
+      </c>
+      <c r="V297">
+        <v>4.48</v>
+      </c>
+      <c r="W297">
+        <v>1.47</v>
+      </c>
+      <c r="X297">
+        <v>2.74</v>
+      </c>
+      <c r="Y297">
+        <v>3.33</v>
+      </c>
+      <c r="Z297">
+        <v>1.34</v>
+      </c>
+      <c r="AA297">
         <v>10</v>
       </c>
-      <c r="T297">
-        <v>4.39</v>
-      </c>
-      <c r="U297">
-        <v>2.03</v>
-      </c>
-      <c r="V297">
-        <v>3.02</v>
-      </c>
-      <c r="W297">
-        <v>1.54</v>
-      </c>
-      <c r="X297">
-        <v>2.51</v>
-      </c>
-      <c r="Y297">
+      <c r="AB297">
+        <v>1.06</v>
+      </c>
+      <c r="AC297">
+        <v>1.95</v>
+      </c>
+      <c r="AD297">
         <v>3.3</v>
       </c>
-      <c r="Z297">
-        <v>1.29</v>
-      </c>
-      <c r="AA297">
-        <v>9.1</v>
-      </c>
-      <c r="AB297">
-        <v>1.03</v>
-      </c>
-      <c r="AC297">
+      <c r="AE297">
+        <v>3.75</v>
+      </c>
+      <c r="AF297">
+        <v>1.04</v>
+      </c>
+      <c r="AG297">
+        <v>8.5</v>
+      </c>
+      <c r="AH297">
+        <v>1.38</v>
+      </c>
+      <c r="AI297">
+        <v>3.03</v>
+      </c>
+      <c r="AJ297">
+        <v>2.15</v>
+      </c>
+      <c r="AK297">
+        <v>1.65</v>
+      </c>
+      <c r="AL297">
+        <v>1.93</v>
+      </c>
+      <c r="AM297">
+        <v>1.88</v>
+      </c>
+      <c r="AN297">
+        <v>1.27</v>
+      </c>
+      <c r="AO297">
+        <v>1.32</v>
+      </c>
+      <c r="AP297">
+        <v>1.83</v>
+      </c>
+      <c r="AQ297">
+        <v>1.67</v>
+      </c>
+      <c r="AR297">
+        <v>1.06</v>
+      </c>
+      <c r="AS297">
+        <v>1.63</v>
+      </c>
+      <c r="AT297">
+        <v>1.06</v>
+      </c>
+      <c r="AU297">
+        <v>1.23</v>
+      </c>
+      <c r="AV297">
+        <v>1.36</v>
+      </c>
+      <c r="AW297">
+        <v>2.59</v>
+      </c>
+      <c r="AX297">
+        <v>1.73</v>
+      </c>
+      <c r="AY297">
+        <v>7.5</v>
+      </c>
+      <c r="AZ297">
+        <v>2.4</v>
+      </c>
+      <c r="BA297">
+        <v>1.31</v>
+      </c>
+      <c r="BB297">
+        <v>1.6</v>
+      </c>
+      <c r="BC297">
+        <v>1.97</v>
+      </c>
+      <c r="BD297">
+        <v>2.45</v>
+      </c>
+      <c r="BE297">
         <v>3.3</v>
       </c>
-      <c r="AD297">
-        <v>3.2</v>
-      </c>
-      <c r="AE297">
-        <v>2.15</v>
-      </c>
-      <c r="AF297">
-        <v>1.1</v>
-      </c>
-      <c r="AG297">
-        <v>7.09</v>
-      </c>
-      <c r="AH297">
-        <v>1.49</v>
-      </c>
-      <c r="AI297">
-        <v>2.67</v>
-      </c>
-      <c r="AJ297">
-        <v>2.25</v>
-      </c>
-      <c r="AK297">
-        <v>1.6</v>
-      </c>
-      <c r="AL297">
-        <v>2.2</v>
-      </c>
-      <c r="AM297">
-        <v>1.67</v>
-      </c>
-      <c r="AN297">
-        <v>1.69</v>
-      </c>
-      <c r="AO297">
-        <v>1.33</v>
-      </c>
-      <c r="AP297">
-        <v>1.33</v>
-      </c>
-      <c r="AQ297">
-        <v>1</v>
-      </c>
-      <c r="AR297">
-        <v>1.61</v>
-      </c>
-      <c r="AS297">
-        <v>0.95</v>
-      </c>
-      <c r="AT297">
-        <v>1.68</v>
-      </c>
-      <c r="AU297">
-        <v>1.26</v>
-      </c>
-      <c r="AV297">
-        <v>1.32</v>
-      </c>
-      <c r="AW297">
-        <v>2.58</v>
-      </c>
-      <c r="AX297">
-        <v>2</v>
-      </c>
-      <c r="AY297">
-        <v>8</v>
-      </c>
-      <c r="AZ297">
-        <v>2.1</v>
-      </c>
-      <c r="BA297">
-        <v>1.27</v>
-      </c>
-      <c r="BB297">
-        <v>1.52</v>
-      </c>
-      <c r="BC297">
-        <v>1.84</v>
-      </c>
-      <c r="BD297">
-        <v>2.27</v>
-      </c>
-      <c r="BE297">
-        <v>3</v>
-      </c>
       <c r="BF297">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG297">
         <v>4</v>
       </c>
       <c r="BH297">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI297">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ297">
+        <v>11</v>
+      </c>
+      <c r="BK297">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:63">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>3274772</v>
+      </c>
+      <c r="C298" t="s">
+        <v>63</v>
+      </c>
+      <c r="D298" t="s">
+        <v>64</v>
+      </c>
+      <c r="E298" s="2">
+        <v>44858.67708333334</v>
+      </c>
+      <c r="F298">
+        <v>15</v>
+      </c>
+      <c r="G298" t="s">
+        <v>68</v>
+      </c>
+      <c r="H298" t="s">
+        <v>78</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+      <c r="K298">
+        <v>2</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298">
+        <v>3</v>
+      </c>
+      <c r="N298">
+        <v>4</v>
+      </c>
+      <c r="O298" t="s">
+        <v>232</v>
+      </c>
+      <c r="P298" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q298">
+        <v>4</v>
+      </c>
+      <c r="R298">
+        <v>6</v>
+      </c>
+      <c r="S298">
+        <v>10</v>
+      </c>
+      <c r="T298">
+        <v>4.39</v>
+      </c>
+      <c r="U298">
+        <v>2.03</v>
+      </c>
+      <c r="V298">
+        <v>3.02</v>
+      </c>
+      <c r="W298">
+        <v>1.54</v>
+      </c>
+      <c r="X298">
+        <v>2.51</v>
+      </c>
+      <c r="Y298">
+        <v>3.3</v>
+      </c>
+      <c r="Z298">
+        <v>1.29</v>
+      </c>
+      <c r="AA298">
+        <v>9.1</v>
+      </c>
+      <c r="AB298">
+        <v>1.03</v>
+      </c>
+      <c r="AC298">
+        <v>3.3</v>
+      </c>
+      <c r="AD298">
+        <v>3.2</v>
+      </c>
+      <c r="AE298">
+        <v>2.15</v>
+      </c>
+      <c r="AF298">
+        <v>1.1</v>
+      </c>
+      <c r="AG298">
+        <v>7.09</v>
+      </c>
+      <c r="AH298">
+        <v>1.49</v>
+      </c>
+      <c r="AI298">
+        <v>2.67</v>
+      </c>
+      <c r="AJ298">
+        <v>2.25</v>
+      </c>
+      <c r="AK298">
+        <v>1.6</v>
+      </c>
+      <c r="AL298">
+        <v>2.2</v>
+      </c>
+      <c r="AM298">
+        <v>1.67</v>
+      </c>
+      <c r="AN298">
+        <v>1.69</v>
+      </c>
+      <c r="AO298">
+        <v>1.33</v>
+      </c>
+      <c r="AP298">
+        <v>1.33</v>
+      </c>
+      <c r="AQ298">
+        <v>1</v>
+      </c>
+      <c r="AR298">
+        <v>1.61</v>
+      </c>
+      <c r="AS298">
+        <v>0.95</v>
+      </c>
+      <c r="AT298">
+        <v>1.68</v>
+      </c>
+      <c r="AU298">
+        <v>1.26</v>
+      </c>
+      <c r="AV298">
+        <v>1.32</v>
+      </c>
+      <c r="AW298">
+        <v>2.58</v>
+      </c>
+      <c r="AX298">
+        <v>2</v>
+      </c>
+      <c r="AY298">
+        <v>8</v>
+      </c>
+      <c r="AZ298">
+        <v>2.1</v>
+      </c>
+      <c r="BA298">
+        <v>1.27</v>
+      </c>
+      <c r="BB298">
+        <v>1.52</v>
+      </c>
+      <c r="BC298">
+        <v>1.84</v>
+      </c>
+      <c r="BD298">
+        <v>2.27</v>
+      </c>
+      <c r="BE298">
+        <v>3</v>
+      </c>
+      <c r="BF298">
+        <v>2</v>
+      </c>
+      <c r="BG298">
+        <v>4</v>
+      </c>
+      <c r="BH298">
+        <v>3</v>
+      </c>
+      <c r="BI298">
+        <v>3</v>
+      </c>
+      <c r="BJ298">
         <v>5</v>
       </c>
-      <c r="BK297">
+      <c r="BK298">
         <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:63">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>4457811</v>
+      </c>
+      <c r="C299" t="s">
+        <v>63</v>
+      </c>
+      <c r="D299" t="s">
+        <v>64</v>
+      </c>
+      <c r="E299" s="2">
+        <v>44864.66666666666</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299" t="s">
+        <v>75</v>
+      </c>
+      <c r="H299" t="s">
+        <v>70</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299">
+        <v>4</v>
+      </c>
+      <c r="N299">
+        <v>5</v>
+      </c>
+      <c r="O299" t="s">
+        <v>199</v>
+      </c>
+      <c r="P299" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q299">
+        <v>7</v>
+      </c>
+      <c r="R299">
+        <v>9</v>
+      </c>
+      <c r="S299">
+        <v>16</v>
+      </c>
+      <c r="T299">
+        <v>4.53</v>
+      </c>
+      <c r="U299">
+        <v>2.19</v>
+      </c>
+      <c r="V299">
+        <v>2.67</v>
+      </c>
+      <c r="W299">
+        <v>1.41</v>
+      </c>
+      <c r="X299">
+        <v>2.7</v>
+      </c>
+      <c r="Y299">
+        <v>3</v>
+      </c>
+      <c r="Z299">
+        <v>1.35</v>
+      </c>
+      <c r="AA299">
+        <v>8.5</v>
+      </c>
+      <c r="AB299">
+        <v>1.07</v>
+      </c>
+      <c r="AC299">
+        <v>3.25</v>
+      </c>
+      <c r="AD299">
+        <v>3.25</v>
+      </c>
+      <c r="AE299">
+        <v>1.98</v>
+      </c>
+      <c r="AF299">
+        <v>1.05</v>
+      </c>
+      <c r="AG299">
+        <v>10.25</v>
+      </c>
+      <c r="AH299">
+        <v>1.31</v>
+      </c>
+      <c r="AI299">
+        <v>3.25</v>
+      </c>
+      <c r="AJ299">
+        <v>2.03</v>
+      </c>
+      <c r="AK299">
+        <v>1.7</v>
+      </c>
+      <c r="AL299">
+        <v>1.88</v>
+      </c>
+      <c r="AM299">
+        <v>1.93</v>
+      </c>
+      <c r="AN299">
+        <v>1.87</v>
+      </c>
+      <c r="AO299">
+        <v>1.32</v>
+      </c>
+      <c r="AP299">
+        <v>1.25</v>
+      </c>
+      <c r="AQ299">
+        <v>1.95</v>
+      </c>
+      <c r="AR299">
+        <v>2.21</v>
+      </c>
+      <c r="AS299">
+        <v>1.9</v>
+      </c>
+      <c r="AT299">
+        <v>2.23</v>
+      </c>
+      <c r="AU299">
+        <v>1.63</v>
+      </c>
+      <c r="AV299">
+        <v>2</v>
+      </c>
+      <c r="AW299">
+        <v>3.63</v>
+      </c>
+      <c r="AX299">
+        <v>2.4</v>
+      </c>
+      <c r="AY299">
+        <v>8</v>
+      </c>
+      <c r="AZ299">
+        <v>1.73</v>
+      </c>
+      <c r="BA299">
+        <v>1.29</v>
+      </c>
+      <c r="BB299">
+        <v>1.56</v>
+      </c>
+      <c r="BC299">
+        <v>1.89</v>
+      </c>
+      <c r="BD299">
+        <v>2.34</v>
+      </c>
+      <c r="BE299">
+        <v>3.1</v>
+      </c>
+      <c r="BF299">
+        <v>3</v>
+      </c>
+      <c r="BG299">
+        <v>8</v>
+      </c>
+      <c r="BH299">
+        <v>5</v>
+      </c>
+      <c r="BI299">
+        <v>8</v>
+      </c>
+      <c r="BJ299">
+        <v>8</v>
+      </c>
+      <c r="BK299">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
